--- a/biology/Médecine/Maurice_Berger_(médecin)/Maurice_Berger_(médecin).xlsx
+++ b/biology/Médecine/Maurice_Berger_(médecin)/Maurice_Berger_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Berger_(m%C3%A9decin)</t>
+          <t>Maurice_Berger_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Berger, né en 1946, est médecin pédopsychiatre et psychiatre d'adultes. Il est un spécialiste internationalement reconnu de la violence chez les enfants[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Berger, né en 1946, est médecin pédopsychiatre et psychiatre d'adultes. Il est un spécialiste internationalement reconnu de la violence chez les enfants.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maurice_Berger_(m%C3%A9decin)</t>
+          <t>Maurice_Berger_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il soutient sa thèse de médecine en 1972 à l'université Lyon-I[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il soutient sa thèse de médecine en 1972 à l'université Lyon-I,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maurice_Berger_(m%C3%A9decin)</t>
+          <t>Maurice_Berger_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Travaux en protection de l'enfance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1979 à 2014, Maurice Berger a créé et dirigé au CHU de Saint-Étienne le seul service hospitalier français dédié aux soins des enfants placés à l'Aide sociale à l'enfance, souvent extrêmement violents.
 Il a créé le terme de « visites médiatisées » concernant les rencontres parents-enfant dans un lieu institutionnel et en présence d’un tiers, et il a théorisé cette pratique. 
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maurice_Berger_(m%C3%A9decin)</t>
+          <t>Maurice_Berger_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Enseignement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1992, titulaire d’une Habilitation à diriger des recherches, il est nommé Professeur associé de psychopathologie de l’enfant à l’université Lyon 2 jusqu’en 2003. De 2014 à 2021, il est directeur de sessions de formation à l’École nationale de la magistrature, et parrain du Cycle approfondi de la justice des mineurs de 2020 à 2022. En 1999, il obtient, sous la tutelle du Professeur de médecine légale Marie-France Mamzer, la création du seul Diplôme universitaire français « Expertise légale en pédopsychiatrie et en psychologie clinique de l’enfant » à l’université Paris-Cité, en collaboration avec les Dr Jean-Marc Benkemoun et Pierre Lévy-Soussan.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maurice_Berger_(m%C3%A9decin)</t>
+          <t>Maurice_Berger_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Positionnement par rapport à l’IVG</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1972 à 1974, il a pratiqué bénévolement des avortements illégaux dans le cadre de l’Association « Choisir-Lyon » afin de créer un état de fait avant le vote de la loi Veil[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1972 à 1974, il a pratiqué bénévolement des avortements illégaux dans le cadre de l’Association « Choisir-Lyon » afin de créer un état de fait avant le vote de la loi Veil.
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maurice_Berger_(m%C3%A9decin)</t>
+          <t>Maurice_Berger_(médecin)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,16 +656,18 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sur la violence gratuite en France : Adolescents hyper-violents, témoignages et analyse, Éditions L'artilleur, 2019, 180 p.  (ISBN 9782810009237)
 De l'incivilité au terrorisme : Comprendre la violence sans l'excuser, Dunod, 2018, 224 p.  (ISBN 9782100778898)
 L'Échec de la protection de l'enfance, Dunod 2014, 280 p.  (ISBN 9782100706020)
 L'Enfant et la souffrance de la séparation : Divorce, adoption, placement, réed. Dunod, 2014, 176 p.  (ISBN 9782100709748)
-Ces enfants qu'on sacrifie... Réponse à la loi réformant la protection de l'enfance, Dunod, 2014, 192 p.  (ISBN 9782100709885)[5]
+Ces enfants qu'on sacrifie... Réponse à la loi réformant la protection de l'enfance, Dunod, 2014, 192 p.  (ISBN 9782100709885)
 Voulons-nous des enfants barbares ? Prévenir et traiter la violence extrême, Dunod, 2013, 256 p.  (ISBN 9782100701421)
 L'Enfant Instable, Dunod, 2013, 180 p.  (ISBN 9782100701407)
-Soigner les enfants violents : Traitement, prévention, enjeux, Dunod, 2012, 320 p.  (ISBN 9782100574148)[6]
+Soigner les enfants violents : Traitement, prévention, enjeux, Dunod, 2012, 320 p.  (ISBN 9782100574148)
 Les Séparations à but thérapeutique, Dunod, 2011, 224 p.  (ISBN 9782100553617)
 Mes parents se séparent, Albin Michel, 2003, 160 p.  (ISBN 9782226137586)
 La Folie cachée des hommes de pouvoir, Albin Michel, 1993, 163 p.  (ISBN 9782226066121)
